--- a/jy3204/dataSummary.xlsx
+++ b/jy3204/dataSummary.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audreyyang/SynologyDrive/ColumbiaCS/Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yukui\SynologyDrive\ColumbiaCS\Capstone\Project\MediaMath\jy3204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D55EEB7B-22F3-6B49-B5FD-482CFE48BBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1151DD7B-4668-4C88-84C9-32DDBB5C7BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="2920" windowWidth="36120" windowHeight="24080" xr2:uid="{270C39FA-5E73-2C4E-BB71-EA0B3DBAE511}"/>
+    <workbookView xWindow="-84" yWindow="0" windowWidth="23244" windowHeight="13140" activeTab="1" xr2:uid="{270C39FA-5E73-2C4E-BB71-EA0B3DBAE511}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
   <si>
     <t>mm_auction_id</t>
   </si>
@@ -189,13 +190,19 @@
   </si>
   <si>
     <t>unique</t>
+  </si>
+  <si>
+    <t>roi all</t>
+  </si>
+  <si>
+    <t>RowCount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -216,8 +223,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +270,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -263,17 +285,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,18 +624,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114BC2E2-F2C4-B64A-B709-9ABD5DA0339A}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>42</v>
       </c>
@@ -651,7 +685,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>38</v>
       </c>
@@ -707,7 +741,7 @@
         <v>1382862</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>26</v>
       </c>
@@ -763,7 +797,7 @@
         <v>1371261</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>18</v>
       </c>
@@ -819,7 +853,7 @@
         <v>730305</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20</v>
       </c>
@@ -875,7 +909,7 @@
         <v>166170</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>27</v>
       </c>
@@ -931,7 +965,7 @@
         <v>66951</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -987,7 +1021,7 @@
         <v>34900</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>21</v>
       </c>
@@ -1043,7 +1077,7 @@
         <v>16120</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13</v>
       </c>
@@ -1099,7 +1133,7 @@
         <v>9492</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>40</v>
       </c>
@@ -1155,7 +1189,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1211,7 +1245,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1267,7 +1301,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>34</v>
       </c>
@@ -1323,7 +1357,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1379,7 +1413,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1435,7 +1469,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1491,7 +1525,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>25</v>
       </c>
@@ -1547,7 +1581,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>31</v>
       </c>
@@ -1603,7 +1637,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>30</v>
       </c>
@@ -1659,7 +1693,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>32</v>
       </c>
@@ -1715,7 +1749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -1771,7 +1805,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>36</v>
       </c>
@@ -1827,7 +1861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1883,7 +1917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>37</v>
       </c>
@@ -1939,7 +1973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>35</v>
       </c>
@@ -1995,7 +2029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>17</v>
       </c>
@@ -2051,7 +2085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -2107,7 +2141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -2163,7 +2197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2219,7 +2253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2275,7 +2309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2331,7 +2365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2387,7 +2421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>39</v>
       </c>
@@ -2443,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28</v>
       </c>
@@ -2499,7 +2533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>19</v>
       </c>
@@ -2555,7 +2589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>29</v>
       </c>
@@ -2611,7 +2645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>22</v>
       </c>
@@ -2667,7 +2701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6</v>
       </c>
@@ -2723,7 +2757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>11</v>
       </c>
@@ -2779,7 +2813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>41</v>
       </c>
@@ -2835,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>7</v>
       </c>
@@ -2891,7 +2925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8</v>
       </c>
@@ -2947,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3003,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>33</v>
       </c>
@@ -3057,6 +3091,1142 @@
       </c>
       <c r="T44">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C206245C-CB2F-44D8-8834-10645E3E2DF4}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1326016</v>
+      </c>
+      <c r="C2">
+        <v>47468</v>
+      </c>
+      <c r="D2">
+        <v>7036</v>
+      </c>
+      <c r="E2">
+        <v>1429</v>
+      </c>
+      <c r="F2">
+        <v>485</v>
+      </c>
+      <c r="G2">
+        <v>222</v>
+      </c>
+      <c r="H2">
+        <v>1371261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>717170</v>
+      </c>
+      <c r="C3" s="2">
+        <v>46176</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7010</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1429</v>
+      </c>
+      <c r="F3" s="2">
+        <v>484</v>
+      </c>
+      <c r="G3" s="2">
+        <v>222</v>
+      </c>
+      <c r="H3" s="2">
+        <v>730305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>9339</v>
+      </c>
+      <c r="C8">
+        <v>3199</v>
+      </c>
+      <c r="D8">
+        <v>1194</v>
+      </c>
+      <c r="E8">
+        <v>467</v>
+      </c>
+      <c r="F8">
+        <v>223</v>
+      </c>
+      <c r="G8">
+        <v>119</v>
+      </c>
+      <c r="H8">
+        <v>9492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>34308</v>
+      </c>
+      <c r="C9">
+        <v>6916</v>
+      </c>
+      <c r="D9">
+        <v>2042</v>
+      </c>
+      <c r="E9">
+        <v>663</v>
+      </c>
+      <c r="F9">
+        <v>282</v>
+      </c>
+      <c r="G9">
+        <v>133</v>
+      </c>
+      <c r="H9">
+        <v>34900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>53</v>
+      </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>212</v>
+      </c>
+      <c r="C14">
+        <v>210</v>
+      </c>
+      <c r="D14">
+        <v>201</v>
+      </c>
+      <c r="E14">
+        <v>139</v>
+      </c>
+      <c r="F14">
+        <v>96</v>
+      </c>
+      <c r="G14">
+        <v>61</v>
+      </c>
+      <c r="H14">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>326</v>
+      </c>
+      <c r="C17">
+        <v>214</v>
+      </c>
+      <c r="D17">
+        <v>129</v>
+      </c>
+      <c r="E17">
+        <v>94</v>
+      </c>
+      <c r="F17">
+        <v>58</v>
+      </c>
+      <c r="G17">
+        <v>42</v>
+      </c>
+      <c r="H17">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>333</v>
+      </c>
+      <c r="C18">
+        <v>225</v>
+      </c>
+      <c r="D18">
+        <v>142</v>
+      </c>
+      <c r="E18">
+        <v>79</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>33</v>
+      </c>
+      <c r="H18">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6">
+        <v>9</v>
+      </c>
+      <c r="H20" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>33</v>
+      </c>
+      <c r="C21" s="6">
+        <v>24</v>
+      </c>
+      <c r="D21" s="6">
+        <v>16</v>
+      </c>
+      <c r="E21" s="6">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6">
+        <v>11</v>
+      </c>
+      <c r="G21" s="6">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>66</v>
+      </c>
+      <c r="C22">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>154190</v>
+      </c>
+      <c r="C24" s="2">
+        <v>24271</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3479</v>
+      </c>
+      <c r="E24" s="2">
+        <v>683</v>
+      </c>
+      <c r="F24" s="2">
+        <v>229</v>
+      </c>
+      <c r="G24" s="2">
+        <v>108</v>
+      </c>
+      <c r="H24" s="2">
+        <v>166170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>3803</v>
+      </c>
+      <c r="C25">
+        <v>1030</v>
+      </c>
+      <c r="D25">
+        <v>295</v>
+      </c>
+      <c r="E25">
+        <v>72</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6">
+        <v>4</v>
+      </c>
+      <c r="G27" s="6">
+        <v>5</v>
+      </c>
+      <c r="H27" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="6">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3</v>
+      </c>
+      <c r="G28" s="6">
+        <v>4</v>
+      </c>
+      <c r="H28" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>622</v>
+      </c>
+      <c r="C29">
+        <v>287</v>
+      </c>
+      <c r="D29">
+        <v>159</v>
+      </c>
+      <c r="E29">
+        <v>84</v>
+      </c>
+      <c r="F29">
+        <v>47</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="6">
+        <v>12</v>
+      </c>
+      <c r="C30" s="6">
+        <v>10</v>
+      </c>
+      <c r="D30" s="6">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6">
+        <v>7</v>
+      </c>
+      <c r="G30" s="6">
+        <v>6</v>
+      </c>
+      <c r="H30" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6">
+        <v>6</v>
+      </c>
+      <c r="E31" s="6">
+        <v>5</v>
+      </c>
+      <c r="F31" s="6">
+        <v>4</v>
+      </c>
+      <c r="G31" s="6">
+        <v>5</v>
+      </c>
+      <c r="H31" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>242</v>
+      </c>
+      <c r="C32">
+        <v>143</v>
+      </c>
+      <c r="D32">
+        <v>85</v>
+      </c>
+      <c r="E32">
+        <v>53</v>
+      </c>
+      <c r="F32">
+        <v>38</v>
+      </c>
+      <c r="G32">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>977</v>
+      </c>
+      <c r="C33">
+        <v>362</v>
+      </c>
+      <c r="D33">
+        <v>130</v>
+      </c>
+      <c r="E33">
+        <v>41</v>
+      </c>
+      <c r="F33">
+        <v>22</v>
+      </c>
+      <c r="G33">
+        <v>13</v>
+      </c>
+      <c r="H33">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>99</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>101</v>
+      </c>
+      <c r="C37">
+        <v>101</v>
+      </c>
+      <c r="D37">
+        <v>101</v>
+      </c>
+      <c r="E37">
+        <v>95</v>
+      </c>
+      <c r="F37">
+        <v>57</v>
+      </c>
+      <c r="G37">
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>65049</v>
+      </c>
+      <c r="C38">
+        <v>3854</v>
+      </c>
+      <c r="D38">
+        <v>596</v>
+      </c>
+      <c r="E38">
+        <v>116</v>
+      </c>
+      <c r="F38">
+        <v>27</v>
+      </c>
+      <c r="G38">
+        <v>19</v>
+      </c>
+      <c r="H38">
+        <v>66951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>15888</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4422</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1517</v>
+      </c>
+      <c r="E40" s="3">
+        <v>552</v>
+      </c>
+      <c r="F40" s="3">
+        <v>243</v>
+      </c>
+      <c r="G40" s="3">
+        <v>124</v>
+      </c>
+      <c r="H40" s="3">
+        <v>16120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7">
+        <v>4210</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2191</v>
+      </c>
+      <c r="E42" s="7">
+        <v>927</v>
+      </c>
+      <c r="F42" s="7">
+        <v>383</v>
+      </c>
+      <c r="G42" s="7">
+        <v>197</v>
+      </c>
+      <c r="H42" s="7">
+        <v>7909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>1326194</v>
+      </c>
+      <c r="C43">
+        <v>47492</v>
+      </c>
+      <c r="D43">
+        <v>7040</v>
+      </c>
+      <c r="E43">
+        <v>1429</v>
+      </c>
+      <c r="F43">
+        <v>485</v>
+      </c>
+      <c r="G43">
+        <v>222</v>
+      </c>
+      <c r="H43">
+        <v>1382862</v>
       </c>
     </row>
   </sheetData>
